--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value122.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value122.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.014079207587618</v>
+        <v>0.5194237232208252</v>
       </c>
       <c r="B1">
-        <v>1.789041353773105</v>
+        <v>1.698515176773071</v>
       </c>
       <c r="C1">
-        <v>4.12906080827188</v>
+        <v>4.663849353790283</v>
       </c>
       <c r="D1">
-        <v>2.426204914189464</v>
+        <v>1.195181369781494</v>
       </c>
       <c r="E1">
-        <v>1.013379040671569</v>
+        <v>0.7456616759300232</v>
       </c>
     </row>
   </sheetData>
